--- a/gaal/gaal-2025-2/2025-2-gaal-lista-notas.xlsx
+++ b/gaal/gaal-2025-2/2025-2-gaal-lista-notas.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M:M"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -411,8 +411,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="5.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="5.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,21 +796,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="n">
         <f aca="false">IF(B10="ausente",0,B10)*0.2+IF(C10="ausente",0,C10)*0.3+IF(D10="ausente",0,D10)*0.5</f>
-        <v>1.02</v>
+        <v>1.22</v>
       </c>
       <c r="F10" s="3" t="n">
         <f aca="false">IF(B10="ausente",0,B10)*0.2+IF(C10="ausente",0,C10)*0.5+IF(D10="ausente",0,D10)*0.3</f>
-        <v>1.02</v>
+        <v>1.22</v>
       </c>
       <c r="G10" s="3" t="n">
         <f aca="false">MAX(E10:F10)</f>
-        <v>1.02</v>
+        <v>1.22</v>
       </c>
       <c r="H10" s="4" t="str">
         <f aca="false">IF(G10&lt;4,"REP.",IF(G10&lt;5.9,"VS","APR."))</f>
@@ -818,11 +818,11 @@
       </c>
       <c r="J10" s="3" t="n">
         <f aca="false">IF(OR(G10&lt;4,G10&gt;5.9),G10,IF(I10&gt;6,6,(I10+G10)/2))</f>
-        <v>1.02</v>
+        <v>1.22</v>
       </c>
       <c r="K10" s="3" t="n">
         <f aca="false">IF(B10="ausente",0,B10)</f>
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="L10" s="3" t="n">
         <f aca="false">IF(C10="ausente",0,C10)</f>

--- a/gaal/gaal-2025-2/2025-2-gaal-lista-notas.xlsx
+++ b/gaal/gaal-2025-2/2025-2-gaal-lista-notas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
   <si>
     <t xml:space="preserve">CPF</t>
   </si>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">NVA1</t>
   </si>
   <si>
-    <t xml:space="preserve">PP2</t>
+    <t xml:space="preserve">NVA2</t>
   </si>
   <si>
     <t xml:space="preserve">PP3</t>
@@ -68,10 +68,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -170,7 +169,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,10 +183,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -401,7 +396,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -463,7 +458,9 @@
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" s="3" t="n">
         <f aca="false">IF(B2="ausente",0,B2)*0.2+IF(C2="ausente",0,C2)*0.3+IF(D2="ausente",0,D2)*0.5</f>
         <v>0</v>
@@ -476,7 +473,7 @@
         <f aca="false">MAX(E2:F2)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="str">
+      <c r="H2" s="1" t="str">
         <f aca="false">IF(G2&lt;4,"REP.",IF(G2&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -504,7 +501,9 @@
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="n">
         <f aca="false">IF(B3="ausente",0,B3)*0.2+IF(C3="ausente",0,C3)*0.3+IF(D3="ausente",0,D3)*0.5</f>
@@ -518,7 +517,7 @@
         <f aca="false">MAX(E3:F3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="str">
+      <c r="H3" s="1" t="str">
         <f aca="false">IF(G3&lt;4,"REP.",IF(G3&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -546,7 +545,9 @@
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="n">
         <f aca="false">IF(B4="ausente",0,B4)*0.2+IF(C4="ausente",0,C4)*0.3+IF(D4="ausente",0,D4)*0.5</f>
@@ -560,7 +561,7 @@
         <f aca="false">MAX(E4:F4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="1" t="str">
         <f aca="false">IF(G4&lt;4,"REP.",IF(G4&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -588,27 +589,29 @@
       <c r="B5" s="3" t="n">
         <v>4.7</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="n">
+        <v>0.3</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="n">
         <f aca="false">IF(B5="ausente",0,B5)*0.2+IF(C5="ausente",0,C5)*0.3+IF(D5="ausente",0,D5)*0.5</f>
-        <v>0.94</v>
+        <v>1.03</v>
       </c>
       <c r="F5" s="3" t="n">
         <f aca="false">IF(B5="ausente",0,B5)*0.2+IF(C5="ausente",0,C5)*0.5+IF(D5="ausente",0,D5)*0.3</f>
-        <v>0.94</v>
+        <v>1.09</v>
       </c>
       <c r="G5" s="3" t="n">
         <f aca="false">MAX(E5:F5)</f>
-        <v>0.94</v>
-      </c>
-      <c r="H5" s="4" t="str">
+        <v>1.09</v>
+      </c>
+      <c r="H5" s="1" t="str">
         <f aca="false">IF(G5&lt;4,"REP.",IF(G5&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
       <c r="J5" s="3" t="n">
         <f aca="false">IF(OR(G5&lt;4,G5&gt;5.9),G5,IF(I5&gt;6,6,(I5+G5)/2))</f>
-        <v>0.94</v>
+        <v>1.09</v>
       </c>
       <c r="K5" s="3" t="n">
         <f aca="false">IF(B5="ausente",0,B5)</f>
@@ -616,7 +619,7 @@
       </c>
       <c r="L5" s="3" t="n">
         <f aca="false">IF(C5="ausente",0,C5)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M5" s="3" t="n">
         <f aca="false">IF(D5="ausente",0,D5)</f>
@@ -630,27 +633,29 @@
       <c r="B6" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="n">
+        <v>2.7</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="n">
         <f aca="false">IF(B6="ausente",0,B6)*0.2+IF(C6="ausente",0,C6)*0.3+IF(D6="ausente",0,D6)*0.5</f>
-        <v>0.7</v>
+        <v>1.51</v>
       </c>
       <c r="F6" s="3" t="n">
         <f aca="false">IF(B6="ausente",0,B6)*0.2+IF(C6="ausente",0,C6)*0.5+IF(D6="ausente",0,D6)*0.3</f>
-        <v>0.7</v>
+        <v>2.05</v>
       </c>
       <c r="G6" s="3" t="n">
         <f aca="false">MAX(E6:F6)</f>
-        <v>0.7</v>
-      </c>
-      <c r="H6" s="4" t="str">
+        <v>2.05</v>
+      </c>
+      <c r="H6" s="1" t="str">
         <f aca="false">IF(G6&lt;4,"REP.",IF(G6&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
       <c r="J6" s="3" t="n">
         <f aca="false">IF(OR(G6&lt;4,G6&gt;5.9),G6,IF(I6&gt;6,6,(I6+G6)/2))</f>
-        <v>0.7</v>
+        <v>2.05</v>
       </c>
       <c r="K6" s="3" t="n">
         <f aca="false">IF(B6="ausente",0,B6)</f>
@@ -658,7 +663,7 @@
       </c>
       <c r="L6" s="3" t="n">
         <f aca="false">IF(C6="ausente",0,C6)</f>
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M6" s="3" t="n">
         <f aca="false">IF(D6="ausente",0,D6)</f>
@@ -672,27 +677,29 @@
       <c r="B7" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="n">
+        <v>0.3</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="n">
         <f aca="false">IF(B7="ausente",0,B7)*0.2+IF(C7="ausente",0,C7)*0.3+IF(D7="ausente",0,D7)*0.5</f>
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="F7" s="3" t="n">
         <f aca="false">IF(B7="ausente",0,B7)*0.2+IF(C7="ausente",0,C7)*0.5+IF(D7="ausente",0,D7)*0.3</f>
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="G7" s="3" t="n">
         <f aca="false">MAX(E7:F7)</f>
-        <v>1.6</v>
-      </c>
-      <c r="H7" s="4" t="str">
+        <v>1.75</v>
+      </c>
+      <c r="H7" s="1" t="str">
         <f aca="false">IF(G7&lt;4,"REP.",IF(G7&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
       <c r="J7" s="3" t="n">
         <f aca="false">IF(OR(G7&lt;4,G7&gt;5.9),G7,IF(I7&gt;6,6,(I7+G7)/2))</f>
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="K7" s="3" t="n">
         <f aca="false">IF(B7="ausente",0,B7)</f>
@@ -700,7 +707,7 @@
       </c>
       <c r="L7" s="3" t="n">
         <f aca="false">IF(C7="ausente",0,C7)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M7" s="3" t="n">
         <f aca="false">IF(D7="ausente",0,D7)</f>
@@ -714,7 +721,9 @@
       <c r="B8" s="3" t="n">
         <v>8.1</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="n">
         <f aca="false">IF(B8="ausente",0,B8)*0.2+IF(C8="ausente",0,C8)*0.3+IF(D8="ausente",0,D8)*0.5</f>
@@ -728,7 +737,7 @@
         <f aca="false">MAX(E8:F8)</f>
         <v>1.62</v>
       </c>
-      <c r="H8" s="4" t="str">
+      <c r="H8" s="1" t="str">
         <f aca="false">IF(G8&lt;4,"REP.",IF(G8&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -756,7 +765,9 @@
       <c r="B9" s="3" t="n">
         <v>6.8</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="n">
         <f aca="false">IF(B9="ausente",0,B9)*0.2+IF(C9="ausente",0,C9)*0.3+IF(D9="ausente",0,D9)*0.5</f>
@@ -770,7 +781,7 @@
         <f aca="false">MAX(E9:F9)</f>
         <v>1.36</v>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="1" t="str">
         <f aca="false">IF(G9&lt;4,"REP.",IF(G9&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -798,27 +809,29 @@
       <c r="B10" s="3" t="n">
         <v>6.1</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="n">
+        <v>3.6</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="n">
         <f aca="false">IF(B10="ausente",0,B10)*0.2+IF(C10="ausente",0,C10)*0.3+IF(D10="ausente",0,D10)*0.5</f>
-        <v>1.22</v>
+        <v>2.3</v>
       </c>
       <c r="F10" s="3" t="n">
         <f aca="false">IF(B10="ausente",0,B10)*0.2+IF(C10="ausente",0,C10)*0.5+IF(D10="ausente",0,D10)*0.3</f>
-        <v>1.22</v>
+        <v>3.02</v>
       </c>
       <c r="G10" s="3" t="n">
         <f aca="false">MAX(E10:F10)</f>
-        <v>1.22</v>
-      </c>
-      <c r="H10" s="4" t="str">
+        <v>3.02</v>
+      </c>
+      <c r="H10" s="1" t="str">
         <f aca="false">IF(G10&lt;4,"REP.",IF(G10&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
       <c r="J10" s="3" t="n">
         <f aca="false">IF(OR(G10&lt;4,G10&gt;5.9),G10,IF(I10&gt;6,6,(I10+G10)/2))</f>
-        <v>1.22</v>
+        <v>3.02</v>
       </c>
       <c r="K10" s="3" t="n">
         <f aca="false">IF(B10="ausente",0,B10)</f>
@@ -826,7 +839,7 @@
       </c>
       <c r="L10" s="3" t="n">
         <f aca="false">IF(C10="ausente",0,C10)</f>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M10" s="3" t="n">
         <f aca="false">IF(D10="ausente",0,D10)</f>
@@ -840,27 +853,29 @@
       <c r="B11" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="n">
+        <v>1.4</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="n">
         <f aca="false">IF(B11="ausente",0,B11)*0.2+IF(C11="ausente",0,C11)*0.3+IF(D11="ausente",0,D11)*0.5</f>
-        <v>0.4</v>
+        <v>0.82</v>
       </c>
       <c r="F11" s="3" t="n">
         <f aca="false">IF(B11="ausente",0,B11)*0.2+IF(C11="ausente",0,C11)*0.5+IF(D11="ausente",0,D11)*0.3</f>
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="G11" s="3" t="n">
         <f aca="false">MAX(E11:F11)</f>
-        <v>0.4</v>
-      </c>
-      <c r="H11" s="4" t="str">
+        <v>1.1</v>
+      </c>
+      <c r="H11" s="1" t="str">
         <f aca="false">IF(G11&lt;4,"REP.",IF(G11&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
       <c r="J11" s="3" t="n">
         <f aca="false">IF(OR(G11&lt;4,G11&gt;5.9),G11,IF(I11&gt;6,6,(I11+G11)/2))</f>
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="K11" s="3" t="n">
         <f aca="false">IF(B11="ausente",0,B11)</f>
@@ -868,7 +883,7 @@
       </c>
       <c r="L11" s="3" t="n">
         <f aca="false">IF(C11="ausente",0,C11)</f>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M11" s="3" t="n">
         <f aca="false">IF(D11="ausente",0,D11)</f>
@@ -882,27 +897,29 @@
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="n">
+        <v>6.9</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="n">
         <f aca="false">IF(B12="ausente",0,B12)*0.2+IF(C12="ausente",0,C12)*0.3+IF(D12="ausente",0,D12)*0.5</f>
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="F12" s="3" t="n">
         <f aca="false">IF(B12="ausente",0,B12)*0.2+IF(C12="ausente",0,C12)*0.5+IF(D12="ausente",0,D12)*0.3</f>
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="G12" s="3" t="n">
         <f aca="false">MAX(E12:F12)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4" t="str">
+        <v>3.45</v>
+      </c>
+      <c r="H12" s="1" t="str">
         <f aca="false">IF(G12&lt;4,"REP.",IF(G12&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
       <c r="J12" s="3" t="n">
         <f aca="false">IF(OR(G12&lt;4,G12&gt;5.9),G12,IF(I12&gt;6,6,(I12+G12)/2))</f>
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="K12" s="3" t="n">
         <f aca="false">IF(B12="ausente",0,B12)</f>
@@ -910,7 +927,7 @@
       </c>
       <c r="L12" s="3" t="n">
         <f aca="false">IF(C12="ausente",0,C12)</f>
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="M12" s="3" t="n">
         <f aca="false">IF(D12="ausente",0,D12)</f>
@@ -924,27 +941,29 @@
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="n">
+        <v>3.8</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="n">
         <f aca="false">IF(B13="ausente",0,B13)*0.2+IF(C13="ausente",0,C13)*0.3+IF(D13="ausente",0,D13)*0.5</f>
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="F13" s="3" t="n">
         <f aca="false">IF(B13="ausente",0,B13)*0.2+IF(C13="ausente",0,C13)*0.5+IF(D13="ausente",0,D13)*0.3</f>
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G13" s="3" t="n">
         <f aca="false">MAX(E13:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="4" t="str">
+        <v>1.9</v>
+      </c>
+      <c r="H13" s="1" t="str">
         <f aca="false">IF(G13&lt;4,"REP.",IF(G13&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
       <c r="J13" s="3" t="n">
         <f aca="false">IF(OR(G13&lt;4,G13&gt;5.9),G13,IF(I13&gt;6,6,(I13+G13)/2))</f>
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="K13" s="3" t="n">
         <f aca="false">IF(B13="ausente",0,B13)</f>
@@ -952,7 +971,7 @@
       </c>
       <c r="L13" s="3" t="n">
         <f aca="false">IF(C13="ausente",0,C13)</f>
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M13" s="3" t="n">
         <f aca="false">IF(D13="ausente",0,D13)</f>
@@ -966,7 +985,9 @@
       <c r="B14" s="3" t="n">
         <v>4.2</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="n">
         <f aca="false">IF(B14="ausente",0,B14)*0.2+IF(C14="ausente",0,C14)*0.3+IF(D14="ausente",0,D14)*0.5</f>
@@ -980,7 +1001,7 @@
         <f aca="false">MAX(E14:F14)</f>
         <v>0.84</v>
       </c>
-      <c r="H14" s="4" t="str">
+      <c r="H14" s="1" t="str">
         <f aca="false">IF(G14&lt;4,"REP.",IF(G14&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -1008,7 +1029,9 @@
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="n">
         <f aca="false">IF(B15="ausente",0,B15)*0.2+IF(C15="ausente",0,C15)*0.3+IF(D15="ausente",0,D15)*0.5</f>
@@ -1022,7 +1045,7 @@
         <f aca="false">MAX(E15:F15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="4" t="str">
+      <c r="H15" s="1" t="str">
         <f aca="false">IF(G15&lt;4,"REP.",IF(G15&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -1050,7 +1073,9 @@
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="n">
         <f aca="false">IF(B16="ausente",0,B16)*0.2+IF(C16="ausente",0,C16)*0.3+IF(D16="ausente",0,D16)*0.5</f>
@@ -1064,7 +1089,7 @@
         <f aca="false">MAX(E16:F16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="4" t="str">
+      <c r="H16" s="1" t="str">
         <f aca="false">IF(G16&lt;4,"REP.",IF(G16&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -1092,7 +1117,9 @@
       <c r="B17" s="3" t="n">
         <v>6.8</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="n">
         <f aca="false">IF(B17="ausente",0,B17)*0.2+IF(C17="ausente",0,C17)*0.3+IF(D17="ausente",0,D17)*0.5</f>
@@ -1106,7 +1133,7 @@
         <f aca="false">MAX(E17:F17)</f>
         <v>1.36</v>
       </c>
-      <c r="H17" s="4" t="str">
+      <c r="H17" s="1" t="str">
         <f aca="false">IF(G17&lt;4,"REP.",IF(G17&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -1134,27 +1161,29 @@
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="n">
+        <v>3.3</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="n">
         <f aca="false">IF(B18="ausente",0,B18)*0.2+IF(C18="ausente",0,C18)*0.3+IF(D18="ausente",0,D18)*0.5</f>
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F18" s="3" t="n">
         <f aca="false">IF(B18="ausente",0,B18)*0.2+IF(C18="ausente",0,C18)*0.5+IF(D18="ausente",0,D18)*0.3</f>
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="G18" s="3" t="n">
         <f aca="false">MAX(E18:F18)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="4" t="str">
+        <v>1.65</v>
+      </c>
+      <c r="H18" s="1" t="str">
         <f aca="false">IF(G18&lt;4,"REP.",IF(G18&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
       <c r="J18" s="3" t="n">
         <f aca="false">IF(OR(G18&lt;4,G18&gt;5.9),G18,IF(I18&gt;6,6,(I18+G18)/2))</f>
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="K18" s="3" t="n">
         <f aca="false">IF(B18="ausente",0,B18)</f>
@@ -1162,7 +1191,7 @@
       </c>
       <c r="L18" s="3" t="n">
         <f aca="false">IF(C18="ausente",0,C18)</f>
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M18" s="3" t="n">
         <f aca="false">IF(D18="ausente",0,D18)</f>
@@ -1176,7 +1205,9 @@
       <c r="B19" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="n">
         <f aca="false">IF(B19="ausente",0,B19)*0.2+IF(C19="ausente",0,C19)*0.3+IF(D19="ausente",0,D19)*0.5</f>
@@ -1190,7 +1221,7 @@
         <f aca="false">MAX(E19:F19)</f>
         <v>1.6</v>
       </c>
-      <c r="H19" s="4" t="str">
+      <c r="H19" s="1" t="str">
         <f aca="false">IF(G19&lt;4,"REP.",IF(G19&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -1218,7 +1249,9 @@
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="n">
         <f aca="false">IF(B20="ausente",0,B20)*0.2+IF(C20="ausente",0,C20)*0.3+IF(D20="ausente",0,D20)*0.5</f>
@@ -1232,7 +1265,7 @@
         <f aca="false">MAX(E20:F20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="4" t="str">
+      <c r="H20" s="1" t="str">
         <f aca="false">IF(G20&lt;4,"REP.",IF(G20&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -1260,27 +1293,29 @@
       <c r="B21" s="3" t="n">
         <v>8.8</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="n">
+        <v>1.7</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="n">
         <f aca="false">IF(B21="ausente",0,B21)*0.2+IF(C21="ausente",0,C21)*0.3+IF(D21="ausente",0,D21)*0.5</f>
-        <v>1.76</v>
+        <v>2.27</v>
       </c>
       <c r="F21" s="3" t="n">
         <f aca="false">IF(B21="ausente",0,B21)*0.2+IF(C21="ausente",0,C21)*0.5+IF(D21="ausente",0,D21)*0.3</f>
-        <v>1.76</v>
+        <v>2.61</v>
       </c>
       <c r="G21" s="3" t="n">
         <f aca="false">MAX(E21:F21)</f>
-        <v>1.76</v>
-      </c>
-      <c r="H21" s="4" t="str">
+        <v>2.61</v>
+      </c>
+      <c r="H21" s="1" t="str">
         <f aca="false">IF(G21&lt;4,"REP.",IF(G21&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
       <c r="J21" s="3" t="n">
         <f aca="false">IF(OR(G21&lt;4,G21&gt;5.9),G21,IF(I21&gt;6,6,(I21+G21)/2))</f>
-        <v>1.76</v>
+        <v>2.61</v>
       </c>
       <c r="K21" s="3" t="n">
         <f aca="false">IF(B21="ausente",0,B21)</f>
@@ -1288,7 +1323,7 @@
       </c>
       <c r="L21" s="3" t="n">
         <f aca="false">IF(C21="ausente",0,C21)</f>
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="M21" s="3" t="n">
         <f aca="false">IF(D21="ausente",0,D21)</f>
@@ -1302,7 +1337,9 @@
       <c r="B22" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="n">
         <f aca="false">IF(B22="ausente",0,B22)*0.2+IF(C22="ausente",0,C22)*0.3+IF(D22="ausente",0,D22)*0.5</f>
@@ -1316,7 +1353,7 @@
         <f aca="false">MAX(E22:F22)</f>
         <v>0.6</v>
       </c>
-      <c r="H22" s="4" t="str">
+      <c r="H22" s="1" t="str">
         <f aca="false">IF(G22&lt;4,"REP.",IF(G22&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -1344,27 +1381,29 @@
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="n">
+        <v>5.5</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="n">
         <f aca="false">IF(B23="ausente",0,B23)*0.2+IF(C23="ausente",0,C23)*0.3+IF(D23="ausente",0,D23)*0.5</f>
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="F23" s="3" t="n">
         <f aca="false">IF(B23="ausente",0,B23)*0.2+IF(C23="ausente",0,C23)*0.5+IF(D23="ausente",0,D23)*0.3</f>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="G23" s="3" t="n">
         <f aca="false">MAX(E23:F23)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="4" t="str">
+        <v>2.75</v>
+      </c>
+      <c r="H23" s="1" t="str">
         <f aca="false">IF(G23&lt;4,"REP.",IF(G23&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
       <c r="J23" s="3" t="n">
         <f aca="false">IF(OR(G23&lt;4,G23&gt;5.9),G23,IF(I23&gt;6,6,(I23+G23)/2))</f>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="K23" s="3" t="n">
         <f aca="false">IF(B23="ausente",0,B23)</f>
@@ -1372,7 +1411,7 @@
       </c>
       <c r="L23" s="3" t="n">
         <f aca="false">IF(C23="ausente",0,C23)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="M23" s="3" t="n">
         <f aca="false">IF(D23="ausente",0,D23)</f>
@@ -1386,27 +1425,29 @@
       <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="n">
+        <v>0.3</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="n">
         <f aca="false">IF(B24="ausente",0,B24)*0.2+IF(C24="ausente",0,C24)*0.3+IF(D24="ausente",0,D24)*0.5</f>
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F24" s="3" t="n">
         <f aca="false">IF(B24="ausente",0,B24)*0.2+IF(C24="ausente",0,C24)*0.5+IF(D24="ausente",0,D24)*0.3</f>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G24" s="3" t="n">
         <f aca="false">MAX(E24:F24)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="4" t="str">
+        <v>0.15</v>
+      </c>
+      <c r="H24" s="1" t="str">
         <f aca="false">IF(G24&lt;4,"REP.",IF(G24&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
       <c r="J24" s="3" t="n">
         <f aca="false">IF(OR(G24&lt;4,G24&gt;5.9),G24,IF(I24&gt;6,6,(I24+G24)/2))</f>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K24" s="3" t="n">
         <f aca="false">IF(B24="ausente",0,B24)</f>
@@ -1414,7 +1455,7 @@
       </c>
       <c r="L24" s="3" t="n">
         <f aca="false">IF(C24="ausente",0,C24)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M24" s="3" t="n">
         <f aca="false">IF(D24="ausente",0,D24)</f>
@@ -1428,7 +1469,9 @@
       <c r="B25" s="3" t="n">
         <v>7.7</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="n">
         <f aca="false">IF(B25="ausente",0,B25)*0.2+IF(C25="ausente",0,C25)*0.3+IF(D25="ausente",0,D25)*0.5</f>
@@ -1442,7 +1485,7 @@
         <f aca="false">MAX(E25:F25)</f>
         <v>1.54</v>
       </c>
-      <c r="H25" s="4" t="str">
+      <c r="H25" s="1" t="str">
         <f aca="false">IF(G25&lt;4,"REP.",IF(G25&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -1470,7 +1513,9 @@
       <c r="B26" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="n">
         <f aca="false">IF(B26="ausente",0,B26)*0.2+IF(C26="ausente",0,C26)*0.3+IF(D26="ausente",0,D26)*0.5</f>
@@ -1484,7 +1529,7 @@
         <f aca="false">MAX(E26:F26)</f>
         <v>0.2</v>
       </c>
-      <c r="H26" s="4" t="str">
+      <c r="H26" s="1" t="str">
         <f aca="false">IF(G26&lt;4,"REP.",IF(G26&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -1512,7 +1557,9 @@
       <c r="B27" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="n">
         <f aca="false">IF(B27="ausente",0,B27)*0.2+IF(C27="ausente",0,C27)*0.3+IF(D27="ausente",0,D27)*0.5</f>
@@ -1526,7 +1573,7 @@
         <f aca="false">MAX(E27:F27)</f>
         <v>0.7</v>
       </c>
-      <c r="H27" s="4" t="str">
+      <c r="H27" s="1" t="str">
         <f aca="false">IF(G27&lt;4,"REP.",IF(G27&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -1554,7 +1601,9 @@
       <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="n">
         <f aca="false">IF(B28="ausente",0,B28)*0.2+IF(C28="ausente",0,C28)*0.3+IF(D28="ausente",0,D28)*0.5</f>
@@ -1568,7 +1617,7 @@
         <f aca="false">MAX(E28:F28)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="4" t="str">
+      <c r="H28" s="1" t="str">
         <f aca="false">IF(G28&lt;4,"REP.",IF(G28&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -1596,7 +1645,9 @@
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="n">
         <f aca="false">IF(B29="ausente",0,B29)*0.2+IF(C29="ausente",0,C29)*0.3+IF(D29="ausente",0,D29)*0.5</f>
@@ -1610,7 +1661,7 @@
         <f aca="false">MAX(E29:F29)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="4" t="str">
+      <c r="H29" s="1" t="str">
         <f aca="false">IF(G29&lt;4,"REP.",IF(G29&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -1638,7 +1689,9 @@
       <c r="B30" s="3" t="n">
         <v>7.2</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="n">
         <f aca="false">IF(B30="ausente",0,B30)*0.2+IF(C30="ausente",0,C30)*0.3+IF(D30="ausente",0,D30)*0.5</f>
@@ -1652,7 +1705,7 @@
         <f aca="false">MAX(E30:F30)</f>
         <v>1.44</v>
       </c>
-      <c r="H30" s="4" t="str">
+      <c r="H30" s="1" t="str">
         <f aca="false">IF(G30&lt;4,"REP.",IF(G30&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -1680,7 +1733,9 @@
       <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="n">
         <f aca="false">IF(B31="ausente",0,B31)*0.2+IF(C31="ausente",0,C31)*0.3+IF(D31="ausente",0,D31)*0.5</f>
@@ -1694,7 +1749,7 @@
         <f aca="false">MAX(E31:F31)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="4" t="str">
+      <c r="H31" s="1" t="str">
         <f aca="false">IF(G31&lt;4,"REP.",IF(G31&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -1722,7 +1777,9 @@
       <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="n">
         <f aca="false">IF(B32="ausente",0,B32)*0.2+IF(C32="ausente",0,C32)*0.3+IF(D32="ausente",0,D32)*0.5</f>
@@ -1736,7 +1793,7 @@
         <f aca="false">MAX(E32:F32)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="4" t="str">
+      <c r="H32" s="1" t="str">
         <f aca="false">IF(G32&lt;4,"REP.",IF(G32&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -1764,7 +1821,9 @@
       <c r="B33" s="3" t="n">
         <v>5.4</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="n">
         <f aca="false">IF(B33="ausente",0,B33)*0.2+IF(C33="ausente",0,C33)*0.3+IF(D33="ausente",0,D33)*0.5</f>
@@ -1778,7 +1837,7 @@
         <f aca="false">MAX(E33:F33)</f>
         <v>1.08</v>
       </c>
-      <c r="H33" s="4" t="str">
+      <c r="H33" s="1" t="str">
         <f aca="false">IF(G33&lt;4,"REP.",IF(G33&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
@@ -1806,27 +1865,29 @@
       <c r="B34" s="3" t="n">
         <v>3.1</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="n">
+        <v>0.7</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="n">
         <f aca="false">IF(B34="ausente",0,B34)*0.2+IF(C34="ausente",0,C34)*0.3+IF(D34="ausente",0,D34)*0.5</f>
-        <v>0.62</v>
+        <v>0.83</v>
       </c>
       <c r="F34" s="3" t="n">
         <f aca="false">IF(B34="ausente",0,B34)*0.2+IF(C34="ausente",0,C34)*0.5+IF(D34="ausente",0,D34)*0.3</f>
-        <v>0.62</v>
+        <v>0.97</v>
       </c>
       <c r="G34" s="3" t="n">
         <f aca="false">MAX(E34:F34)</f>
-        <v>0.62</v>
-      </c>
-      <c r="H34" s="4" t="str">
+        <v>0.97</v>
+      </c>
+      <c r="H34" s="1" t="str">
         <f aca="false">IF(G34&lt;4,"REP.",IF(G34&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
       <c r="J34" s="3" t="n">
         <f aca="false">IF(OR(G34&lt;4,G34&gt;5.9),G34,IF(I34&gt;6,6,(I34+G34)/2))</f>
-        <v>0.62</v>
+        <v>0.97</v>
       </c>
       <c r="K34" s="3" t="n">
         <f aca="false">IF(B34="ausente",0,B34)</f>
@@ -1834,7 +1895,7 @@
       </c>
       <c r="L34" s="3" t="n">
         <f aca="false">IF(C34="ausente",0,C34)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M34" s="3" t="n">
         <f aca="false">IF(D34="ausente",0,D34)</f>
